--- a/biology/Médecine/Liste_d'épidémies_liées_au_virus_Ebola/Liste_d'épidémies_liées_au_virus_Ebola.xlsx
+++ b/biology/Médecine/Liste_d'épidémies_liées_au_virus_Ebola/Liste_d'épidémies_liées_au_virus_Ebola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9pid%C3%A9mies_li%C3%A9es_au_virus_Ebola</t>
+          <t>Liste_d'épidémies_liées_au_virus_Ebola</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette liste des épidémies liées au virus Ebola répertorie les différentes épidémies connues liées au virus Ebola. Le Comité international de taxonomie des virus reconnait cinq espèces de virus Ebola : Bundibugyo, Zaïre, Reston, Soudan et Forêt de Taï (anciennement Côte d'Ivoire)[1]. Les sous-types Bundibugyo, Zaïre et Soudan ont été associés à d’importantes flambées en Afrique[2].
-La transmission entre le réservoir naturel et les humains est rare. On peut souvent identifier le patient zéro qui aurait transporté une carcasse de gorille, de chimpanzé ou de cephalophinae[3]. Le virus se transmet alors de personne à personne au domicile, dans les hôpitaux et durant les cérémonies mortuaires[4]. Avant que l'épidémie ne soit confirmée, la maladie à virus Ebola est souvent prise pour un accès de paludisme, une fièvre typhoïde, une dysenterie, une grippe ou différentes infections bactériennes endémiques de la région concernée[réf. nécessaire].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste des épidémies liées au virus Ebola répertorie les différentes épidémies connues liées au virus Ebola. Le Comité international de taxonomie des virus reconnait cinq espèces de virus Ebola : Bundibugyo, Zaïre, Reston, Soudan et Forêt de Taï (anciennement Côte d'Ivoire). Les sous-types Bundibugyo, Zaïre et Soudan ont été associés à d’importantes flambées en Afrique.
+La transmission entre le réservoir naturel et les humains est rare. On peut souvent identifier le patient zéro qui aurait transporté une carcasse de gorille, de chimpanzé ou de cephalophinae. Le virus se transmet alors de personne à personne au domicile, dans les hôpitaux et durant les cérémonies mortuaires. Avant que l'épidémie ne soit confirmée, la maladie à virus Ebola est souvent prise pour un accès de paludisme, une fièvre typhoïde, une dysenterie, une grippe ou différentes infections bactériennes endémiques de la région concernée[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9pid%C3%A9mies_li%C3%A9es_au_virus_Ebola</t>
+          <t>Liste_d'épidémies_liées_au_virus_Ebola</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
